--- a/data/trans_dic/P54_A_2_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P54_A_2_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra preocupada por sufrir una crisis de abastecimiento o ya le ha ocurrido</t>
+          <t>Población que se encuentra preocupada por sufrir una crisis de abastecimiento o ya le ha ocurrido (tasa de respuesta: 98,52%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>25,33%</t>
+          <t>21,88%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>83,97%</t>
+          <t>82,88%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>84,09%</t>
+          <t>81,92%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>22,18%</t>
+          <t>23,47%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>85,9%</t>
+          <t>84,78%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>91,05%</t>
+          <t>89,99%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>23,6%</t>
+          <t>22,69%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>85,06%</t>
+          <t>83,92%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>87,9%</t>
+          <t>86,33%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,09; 33,39</t>
+          <t>12,05; 40,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>77,62; 89,39</t>
+          <t>74,67; 88,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>78,13; 87,78</t>
+          <t>75,15; 86,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,82; 27,16</t>
+          <t>16,34; 32,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>79,49; 89,96</t>
+          <t>77,83; 90,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>87,81; 93,67</t>
+          <t>85,82; 93,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,38; 28,45</t>
+          <t>16,25; 34,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>81,13; 88,3</t>
+          <t>78,94; 88,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>84,65; 90,35</t>
+          <t>82,64; 89,25</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,11%</t>
+          <t>17,56%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>70,54%</t>
+          <t>73,52%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>81,08%</t>
+          <t>78,05%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>21,95%</t>
+          <t>22,61%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>83,26%</t>
+          <t>83,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>88,03%</t>
+          <t>87,57%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>18,99%</t>
+          <t>20,21%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>76,83%</t>
+          <t>78,88%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>84,49%</t>
+          <t>82,89%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,06; 19,76</t>
+          <t>12,7; 25,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>65,49; 74,91</t>
+          <t>67,88; 78,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>77,11; 84,04</t>
+          <t>73,71; 82,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19,02; 25,19</t>
+          <t>17,58; 29,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>80,17; 86,38</t>
+          <t>79,82; 87,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>85,33; 90,28</t>
+          <t>84,18; 89,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,8; 21,26</t>
+          <t>16,26; 25,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>73,58; 79,62</t>
+          <t>75,54; 81,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>82,15; 86,35</t>
+          <t>80,29; 85,06</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>62,95%</t>
+          <t>61,96%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>67,35%</t>
+          <t>65,27%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>66,85%</t>
+          <t>65,62%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>75,92%</t>
+          <t>74,84%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>64,88%</t>
+          <t>63,86%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>71,72%</t>
+          <t>70,3%</t>
         </is>
       </c>
     </row>
@@ -905,54 +906,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,24; 11,74</t>
+          <t>2,45; 9,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>57,51; 67,69</t>
+          <t>55,21; 68,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>62,43; 71,71</t>
+          <t>59,72; 70,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,97; 14,3</t>
+          <t>5,16; 13,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>61,97; 71,54</t>
+          <t>59,97; 71,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>72,22; 79,64</t>
+          <t>69,88; 78,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,25; 11,85</t>
+          <t>4,63; 9,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>60,99; 68,35</t>
+          <t>59,47; 67,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>68,67; 74,66</t>
+          <t>66,84; 73,59</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,11%</t>
+          <t>15,89%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>70,58%</t>
+          <t>70,96%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>77,5%</t>
+          <t>85,58%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,76%</t>
+          <t>19,58%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>78,83%</t>
+          <t>81,5%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>85,06%</t>
+          <t>89,52%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,94%</t>
+          <t>17,66%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>74,78%</t>
+          <t>76,1%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>81,36%</t>
+          <t>87,43%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1016,172 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,96; 17,72</t>
+          <t>13,25; 18,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>66,84; 73,9</t>
+          <t>65,95; 75,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>74,94; 79,95</t>
+          <t>81,16; 89,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,72; 20,95</t>
+          <t>16,94; 22,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>76,23; 81,07</t>
+          <t>77,86; 85,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>83,41; 86,71</t>
+          <t>85,82; 92,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,5; 18,64</t>
+          <t>15,7; 19,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>72,63; 76,85</t>
+          <t>73,17; 78,81</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>79,86; 83,03</t>
+          <t>84,69; 89,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>15,12%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>70,96%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>77,37%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>18,73%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>79,09%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>85,05%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>16,93%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>75,09%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>81,28%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>13,03; 18,16</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>67,83; 73,78</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>74,69; 79,76</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>16,55; 20,86</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>76,78; 81,21</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>83,29; 86,84</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>15,41; 18,55</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>73,24; 77,09</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>79,86; 82,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
@@ -1072,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra preocupada por sufrir una crisis de abastecimiento o ya le ha ocurrido (tasa de respuesta: 98,52%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>244.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>219.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>417.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>46586</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>281127</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>417970</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>52097</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>350400</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>553552</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>98683</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>631526</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>971523</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>25667; 86665</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>253299; 301553</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>383440; 443149</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>36263; 72036</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>321657; 372838</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>527915; 575542</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>70675; 149257</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>594011; 664009</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>930041; 1004391</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>226.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>349.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>307.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>485.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>533.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>834.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>110088</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>677855</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>925014</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>156907</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>823000</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1071168</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>266996</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1500855</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1996182</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>79656; 161230</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>625818; 720518</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>873535; 972138</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>121976; 201406</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>782799; 858195</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1029737; 1100663</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>214821; 339054</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1437328; 1555534</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1933683; 2048523</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>228.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>339.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>351.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>567.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>22526</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>441955</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>546703</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>45669</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>504756</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>695707</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>68195</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>946710</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1242410</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10952; 43272</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>393810; 490173</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>500185; 591930</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>27239; 71047</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>461290; 546714</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>649600; 731428</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>45075; 97255</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>881562; 1006141</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1181287; 1300465</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>327.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>262.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>406.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>302.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>285.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>733.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>564.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>320136</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1013892</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>729617</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>365557</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1109155</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>673834</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>685692</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2123047</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1403451</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>266997; 382736</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>942349; 1082421</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>691885; 761384</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>316355; 421545</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1059664; 1157715</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>645952; 696189</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>609408; 767159</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2041188; 2198737</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1359447; 1444583</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>799.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1012.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>265.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1037.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1370.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>450.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1836.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2382.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>499335</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2414828</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2619305</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>620231</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2787311</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2994261</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1119566</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>5202138</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>5613566</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>430254; 599560</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2308297; 2510816</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2528748; 2700118</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>547913; 690480</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2705735; 2861887</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2932480; 3057343</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1019215; 1226393</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>5073521; 5340316</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>5515089; 5723116</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>